--- a/Mec_ver4-main/data/rule2.xlsx
+++ b/Mec_ver4-main/data/rule2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vutri\OneDrive\Desktop\15092020\code\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696778A-8CD8-4896-8DFC-D44E16FC0B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95ACB4E8-16DE-409F-962C-97C7790FFF40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -203,7 +197,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -397,23 +391,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD8D320-465E-4130-A94D-2E3F424E3FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -505,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -525,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -574,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -597,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -617,10 +611,10 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -643,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>

--- a/Mec_ver4-main/data/rule2.xlsx
+++ b/Mec_ver4-main/data/rule2.xlsx
@@ -391,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
